--- a/gameTb/client/table/存储管理.xlsx
+++ b/gameTb/client/table/存储管理.xlsx
@@ -116,10 +116,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>帐号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>crcId</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -192,6 +188,10 @@
   </si>
   <si>
     <t>每日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -545,7 +545,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
+      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -659,7 +659,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
+      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -673,13 +673,13 @@
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>12</v>
@@ -707,7 +707,7 @@
         <v>8</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>13</v>
@@ -752,18 +752,18 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -787,7 +787,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1">
         <v>1</v>
@@ -795,7 +795,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B2" s="1">
         <v>2</v>
@@ -824,42 +824,42 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -874,7 +874,7 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -886,7 +886,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="B1" s="1">
         <v>1</v>
